--- a/doc/ue_mediaplayer_render.xlsx
+++ b/doc/ue_mediaplayer_render.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232A1DE-5F3C-472C-AFBF-A8C3B8180B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7F7A98-3899-4503-9B1A-7FC2D049909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="渲染线程处理" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>UE中视频最终是怎么被处理渲染到纹理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,9 @@
   <si>
     <t>在主线程里面获取一帧画面数据，发起异步渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGPUsyncedDataDeleter</t>
   </si>
 </sst>
 </file>
@@ -489,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE2BD64-C6FF-4104-9631-C99836916109}">
   <dimension ref="B1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -712,4 +716,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D7A60-58ED-43A2-ABC8-477F3FFC5337}">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_mediaplayer_render.xlsx
+++ b/doc/ue_mediaplayer_render.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7F7A98-3899-4503-9B1A-7FC2D049909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0DEC1A-A641-4145-BAE1-9534661EC05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="渲染线程处理" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="UMediaTexture" sheetId="4" r:id="rId3"/>
+    <sheet name="FMediaPlayerFacade" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>UE中视频最终是怎么被处理渲染到纹理的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,47 +103,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获取需要渲染的一帧数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// redraw texture resource on render thread</t>
+  </si>
+  <si>
+    <t>FMediaTextureResource* ResourceParam = (FMediaTextureResource*)Resource;</t>
+  </si>
+  <si>
+    <t>ENQUEUE_RENDER_COMMAND(MediaTextureResourceRender)(</t>
+  </si>
+  <si>
+    <t>[ResourceParam, RenderParams](FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>ResourceParam-&gt;Render(RenderParams);</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>发起异步渲染请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主线程里面获取一帧画面数据，发起异步渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGPUsyncedDataDeleter</t>
+  </si>
+  <si>
+    <t>RenderThread更新对应的Texture（拷贝数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void UMediaTexture::TickResource(FTimespan Timecode)</t>
-  </si>
-  <si>
-    <t>获取需要渲染的一帧数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// redraw texture resource on render thread</t>
-  </si>
-  <si>
-    <t>FMediaTextureResource* ResourceParam = (FMediaTextureResource*)Resource;</t>
-  </si>
-  <si>
-    <t>ENQUEUE_RENDER_COMMAND(MediaTextureResourceRender)(</t>
-  </si>
-  <si>
-    <t>[ResourceParam, RenderParams](FRHICommandListImmediate&amp; RHICmdList)</t>
-  </si>
-  <si>
-    <t>ResourceParam-&gt;Render(RenderParams);</t>
-  </si>
-  <si>
-    <t>});</t>
-  </si>
-  <si>
-    <t>发起异步渲染请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在主线程里面获取一帧画面数据，发起异步渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGPUsyncedDataDeleter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个平台线程进行解析解码，插入GT的UMediaTexture中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMediaTexture::TickResource选择合适的帧，发起RENDERCOMMAND，通知RenderThread渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UMediaTexture::UpdatePlayerAndQueue()</t>
+  </si>
+  <si>
+    <t>将自己的SampleQueue插入到PlayerFacade中，因为PlayerFacade才是接受视频帧的地方，其会插入到注册的SampleQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentPlayerPtr-&gt;GetPlayerFacade()-&gt;AddVideoSampleSink(SampleQueue.ToSharedRef());</t>
+  </si>
+  <si>
+    <t>VideoSampleSinks</t>
+  </si>
+  <si>
+    <t>FMediaPlayerFacade</t>
+  </si>
+  <si>
+    <t>接受视频帧的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMediaPlayerFacade::AddVideoSampleSink(const TSharedRef&lt;FMediaTextureSampleSink, ESPMode::ThreadSafe&gt;&amp; SampleSink)</t>
+  </si>
+  <si>
+    <t>VideoSampleSinks.Add(SampleSink);</t>
+  </si>
+  <si>
+    <t>UMediaTexture把自己内部的队列插入到这个里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMediaPlayerFacade::ProcessVideoSamplesV1(IMediaSamples&amp; Samples, TRange&lt;FTimespan&gt; TimeRange)</t>
+  </si>
+  <si>
+    <t>接收视频帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (VideoSampleSinks.Enqueue(Sample.ToSharedRef(), FMediaPlayerQueueDepths::MaxVideoSinkDepth))</t>
+  </si>
+  <si>
+    <t>UE4.27和UE5都存在多线程安全问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +224,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,9 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,18 +546,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -494,24 +598,24 @@
   <dimension ref="B1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -519,27 +623,27 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -549,12 +653,12 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -719,18 +823,123 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D7A60-58ED-43A2-ABC8-477F3FFC5337}">
-  <dimension ref="C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D47240-8BEC-4F47-A1EB-545CF0816D67}">
+  <dimension ref="B4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00A4534-37E4-4517-BCFC-E55F01097EFF}">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83D7A60-58ED-43A2-ABC8-477F3FFC5337}">
+  <dimension ref="C4:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
